--- a/III. Math & Informatics/MI - results.xlsx
+++ b/III. Math & Informatics/MI - results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Име</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Факултетен номер</t>
   </si>
   <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Васил Колев</t>
   </si>
   <si>
@@ -62,6 +59,21 @@
   </si>
   <si>
     <t>Мария Тенева</t>
+  </si>
+  <si>
+    <t>Оценка контролно 1</t>
+  </si>
+  <si>
+    <t>Оценка контролно 2</t>
+  </si>
+  <si>
+    <t>Текуща оценка</t>
+  </si>
+  <si>
+    <t>Фатиме Еюп</t>
+  </si>
+  <si>
+    <t>Филип Аладжов</t>
   </si>
 </sst>
 </file>
@@ -120,15 +132,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16"/>
   <sortState ref="A2:C13">
     <sortCondition ref="B1:B13"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="5">
     <tableColumn id="1" name="Име"/>
     <tableColumn id="2" name="Факултетен номер"/>
-    <tableColumn id="3" name="Оценка"/>
+    <tableColumn id="3" name="Оценка контролно 1"/>
+    <tableColumn id="4" name="Оценка контролно 2"/>
+    <tableColumn id="5" name="Текуща оценка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -421,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.36328125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,23 +456,35 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1601181003</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1601181004</v>
@@ -466,10 +492,16 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1601181006</v>
@@ -477,10 +509,16 @@
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1601181009</v>
@@ -488,10 +526,16 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1601181010</v>
@@ -499,10 +543,16 @@
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1601181011</v>
@@ -510,21 +560,33 @@
       <c r="C7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1601181016</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1601181017</v>
@@ -532,10 +594,16 @@
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>1601181018</v>
@@ -543,29 +611,87 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1601181001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1601181014</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
